--- a/biology/Botanique/Penianthus_camerounensis/Penianthus_camerounensis.xlsx
+++ b/biology/Botanique/Penianthus_camerounensis/Penianthus_camerounensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Penianthus camerounensis A.Dekker est une espèce de plantes à fleurs d'Afrique tropicale, de la famille des Menispermaceae, du genre Penianthus[2],[3].
-C'est un arbre d'environ 8 m de haut, qu'on retrouve au Cameroun[4] (Mont Fébé)[2] et cultivé à Wageningen en Hollande[5]. Il se trouve dans les forêts pluvieuses, à 1 200 m d'altitude[5].
-Les premiers spécimens ont été récoltés par le botaniste néerlandais F.J. Breteler le 19 septembre 1961 sur le mont Fébé, dans la région du Centre, à 3 km au nord-ouest de Yaoundé, à une altitude d'environ 950 m[6]. Ces données ont été validées par A.J.F.M. Dekker en 1982, qui a publié son travail l'année suivante[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penianthus camerounensis A.Dekker est une espèce de plantes à fleurs d'Afrique tropicale, de la famille des Menispermaceae, du genre Penianthus,.
+C'est un arbre d'environ 8 m de haut, qu'on retrouve au Cameroun (Mont Fébé) et cultivé à Wageningen en Hollande. Il se trouve dans les forêts pluvieuses, à 1 200 m d'altitude.
+Les premiers spécimens ont été récoltés par le botaniste néerlandais F.J. Breteler le 19 septembre 1961 sur le mont Fébé, dans la région du Centre, à 3 km au nord-ouest de Yaoundé, à une altitude d'environ 950 m. Ces données ont été validées par A.J.F.M. Dekker en 1982, qui a publié son travail l'année suivante.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Penianthus camerounensis est un nom non résolu, c'est-à-dire que ce n'est ni un nom accepté, ni un synonyme[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penianthus camerounensis est un nom non résolu, c'est-à-dire que ce n'est ni un nom accepté, ni un synonyme.
 </t>
         </is>
       </c>
